--- a/06. INFY TRAINING/03_UI/HTML.xlsx
+++ b/06. INFY TRAINING/03_UI/HTML.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\06. INFY TRAINING\03_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616CED17-C5F6-4EF3-9348-884A8BBFBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475A89D-09AF-49D9-9B6A-0E1B32DAC463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://lex.infosysapps.com/app/toc/lex_20662498822105686000/overview/</t>
   </si>
@@ -44,6 +52,18 @@
   </si>
   <si>
     <t>https://lex.infosysapps.com/web/en/app/toc/lex_012602547680796672475/overview/</t>
+  </si>
+  <si>
+    <t>HTML5/skeleton of HTML</t>
+  </si>
+  <si>
+    <t>The &lt;!DOCTYPE HTML&gt; tag instrusts web browser about the version of html in which the page is written in</t>
+  </si>
+  <si>
+    <t>Autofocus</t>
+  </si>
+  <si>
+    <t>Security in hyperlinks</t>
   </si>
 </sst>
 </file>
@@ -174,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -186,6 +206,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AL18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,9 +799,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+      <c r="X9" s="12"/>
       <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -816,7 +838,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
+      <c r="X10" s="12"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -854,8 +876,8 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -893,7 +915,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -932,7 +954,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -971,8 +993,8 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -1010,8 +1032,8 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -1049,8 +1071,8 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1088,8 +1110,8 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -1151,42 +1173,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25B61E6-0B56-4397-8E59-057D589EDE98}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1199,5 +1241,6 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{440C6FB5-D4F9-4CCE-AC57-59C7C84C8C4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>